--- a/pdf_results/output.xlsx
+++ b/pdf_results/output.xlsx
@@ -604,7 +604,7 @@
       <c r="F1" s="1" t="n"/>
       <c r="K1" s="3" t="inlineStr">
         <is>
-          <t>31 Jan 2024</t>
+          <t>25 Jan 2024</t>
         </is>
       </c>
       <c r="L1" s="1" t="n"/>
@@ -657,7 +657,7 @@
       <c r="H3" s="9" t="n"/>
       <c r="K3" s="10" t="inlineStr">
         <is>
-          <t>BNI</t>
+          <t>Tom</t>
         </is>
       </c>
       <c r="L3" s="1" t="n"/>
@@ -687,7 +687,7 @@
       <c r="F4" s="1" t="n"/>
       <c r="K4" s="14" t="inlineStr">
         <is>
-          <t>78 Mountainback Rd</t>
+          <t>47 Mountainback Rd</t>
         </is>
       </c>
       <c r="L4" s="1" t="n"/>
@@ -955,7 +955,7 @@
       <c r="F15" s="26" t="n"/>
       <c r="G15" s="33" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>3</t>
         </is>
       </c>
       <c r="H15" s="36" t="inlineStr">
@@ -970,11 +970,11 @@
       </c>
       <c r="J15" t="inlineStr">
         <is>
-          <t>46500 (C)</t>
+          <t>45000 (N)</t>
         </is>
       </c>
       <c r="K15" s="43" t="n">
-        <v>270600</v>
+        <v>135000</v>
       </c>
       <c r="L15" s="41" t="n"/>
       <c r="M15" s="41" t="n"/>
@@ -1003,13 +1003,29 @@
       <c r="D16" s="25" t="n"/>
       <c r="E16" s="26" t="n"/>
       <c r="F16" s="26" t="n"/>
-      <c r="H16" s="36" t="n"/>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="H16" s="36" t="inlineStr">
+        <is>
+          <t>pcs</t>
+        </is>
+      </c>
+      <c r="I16" t="inlineStr">
+        <is>
+          <t>Kastengel</t>
+        </is>
+      </c>
       <c r="J16" t="inlineStr">
         <is>
-          <t>-1400 (3.0%)</t>
+          <t>35000 (C)</t>
         </is>
       </c>
-      <c r="K16" s="43" t="n"/>
+      <c r="K16" s="43" t="n">
+        <v>140000</v>
+      </c>
       <c r="L16" s="41" t="n"/>
       <c r="M16" s="41" t="n"/>
       <c r="N16" s="1" t="n"/>
@@ -1037,13 +1053,29 @@
       <c r="D17" s="25" t="n"/>
       <c r="E17" s="26" t="n"/>
       <c r="F17" s="26" t="n"/>
-      <c r="H17" s="36" t="n"/>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="H17" s="36" t="inlineStr">
+        <is>
+          <t>pcs</t>
+        </is>
+      </c>
+      <c r="I17" t="inlineStr">
+        <is>
+          <t>Box B</t>
+        </is>
+      </c>
       <c r="J17" t="inlineStr">
         <is>
-          <t xml:space="preserve">  =45100</t>
+          <t>155000 (R)</t>
         </is>
       </c>
-      <c r="K17" s="43" t="n"/>
+      <c r="K17" s="43" t="n">
+        <v>775000</v>
+      </c>
       <c r="L17" s="41" t="n"/>
       <c r="M17" s="41" t="n"/>
       <c r="N17" s="1" t="n"/>
@@ -1073,7 +1105,7 @@
       <c r="F18" s="26" t="n"/>
       <c r="G18" s="33" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>6</t>
         </is>
       </c>
       <c r="H18" s="36" t="inlineStr">
@@ -1083,16 +1115,16 @@
       </c>
       <c r="I18" t="inlineStr">
         <is>
-          <t>Box B</t>
+          <t>Box C</t>
         </is>
       </c>
       <c r="J18" t="inlineStr">
         <is>
-          <t>190000 (c)</t>
+          <t>68900 (H)</t>
         </is>
       </c>
       <c r="K18" s="43" t="n">
-        <v>883500</v>
+        <v>413400</v>
       </c>
       <c r="L18" s="41" t="n"/>
       <c r="M18" s="41" t="n"/>
@@ -1122,11 +1154,6 @@
       <c r="E19" s="26" t="n"/>
       <c r="F19" s="26" t="n"/>
       <c r="H19" s="36" t="n"/>
-      <c r="J19" t="inlineStr">
-        <is>
-          <t>-13300 (7.0%)</t>
-        </is>
-      </c>
       <c r="K19" s="43" t="n"/>
       <c r="L19" s="41" t="n"/>
       <c r="M19" s="41" t="n"/>
@@ -1156,11 +1183,6 @@
       <c r="E20" s="26" t="n"/>
       <c r="F20" s="26" t="n"/>
       <c r="H20" s="36" t="n"/>
-      <c r="J20" t="inlineStr">
-        <is>
-          <t xml:space="preserve">  =176700</t>
-        </is>
-      </c>
       <c r="K20" s="43" t="n"/>
       <c r="L20" s="41" t="n"/>
       <c r="M20" s="41" t="n"/>
@@ -1457,7 +1479,7 @@
         </is>
       </c>
       <c r="K30" s="43" t="n">
-        <v>1154100</v>
+        <v>1463400</v>
       </c>
       <c r="L30" s="1" t="n"/>
       <c r="M30" s="1" t="n"/>
@@ -1489,11 +1511,11 @@
       <c r="H31" s="36" t="n"/>
       <c r="J31" t="inlineStr">
         <is>
-          <t>Discount 30%</t>
+          <t>Discount 3%</t>
         </is>
       </c>
       <c r="K31" s="43" t="n">
-        <v>346200</v>
+        <v>43900</v>
       </c>
       <c r="L31" s="1" t="n"/>
       <c r="M31" s="1" t="n"/>
@@ -1529,7 +1551,7 @@
         </is>
       </c>
       <c r="K32" s="36" t="n">
-        <v>807900</v>
+        <v>1419500</v>
       </c>
       <c r="L32" s="1" t="n"/>
       <c r="M32" s="1" t="n"/>
